--- a/data/trans_dic/P20D1_R_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P20D1_R_2023-Provincia-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.5045590913971157</v>
+        <v>0.5045590913971156</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.2940936107145249</v>
@@ -582,10 +582,10 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.1614609721129197</v>
+        <v>0.1604589399115974</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07305650901001441</v>
+        <v>0.07126314700868042</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>1</v>
+        <v>0.8434887221572985</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6854202849393427</v>
+        <v>0.744256470775102</v>
       </c>
     </row>
     <row r="7">
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1569070933891917</v>
+        <v>0.1569070933891918</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.5944279476709488</v>
+        <v>0.5944279476709489</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2801313283726586</v>
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2731376246066984</v>
+        <v>0.2705103039067598</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1156093754177016</v>
+        <v>0.1314143378359968</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4250314659457768</v>
+        <v>0.4344750529087628</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8984108372295871</v>
+        <v>0.8921501968376691</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.491781545678282</v>
+        <v>0.5094429958359458</v>
       </c>
     </row>
     <row r="10">
@@ -673,10 +673,10 @@
         <v>0.1064198029529297</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.6607606620500811</v>
+        <v>0.6607606620500812</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3247609802358647</v>
+        <v>0.3247609802358646</v>
       </c>
     </row>
     <row r="11">
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3482064799876328</v>
+        <v>0.3360365949921145</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1575382093486817</v>
+        <v>0.1614309233945367</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3339584086357372</v>
+        <v>0.3559838931257549</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9108782606353442</v>
+        <v>0.9174981772021973</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5431494348825917</v>
+        <v>0.5086307282545817</v>
       </c>
     </row>
     <row r="13">
@@ -728,10 +728,10 @@
         <v>0.0999392513221925</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7594681419476977</v>
+        <v>0.7594681419476975</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4402211022557907</v>
+        <v>0.4402211022557908</v>
       </c>
     </row>
     <row r="14">
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.465394770078934</v>
+        <v>0.4695916526453199</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2209415633360231</v>
+        <v>0.2182195254844366</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4503251702840166</v>
+        <v>0.4422959927656582</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9595830313339252</v>
+        <v>0.956299397023387</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.735366053766126</v>
+        <v>0.7350556785673833</v>
       </c>
     </row>
     <row r="16">
@@ -816,7 +816,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.7644672388122892</v>
+        <v>0.7720377025938998</v>
       </c>
     </row>
     <row r="19">
@@ -837,7 +837,7 @@
         <v>0.7893044261107738</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.4297640488183433</v>
+        <v>0.4297640488183436</v>
       </c>
     </row>
     <row r="20">
@@ -848,13 +848,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07268009345250619</v>
+        <v>0.06913370349697223</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3192412557903377</v>
+        <v>0.2753128103658902</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.202051680536551</v>
+        <v>0.2102048230106807</v>
       </c>
     </row>
     <row r="21">
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5137881242269859</v>
+        <v>0.5583220742598919</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6689685586736068</v>
+        <v>0.6839147291275471</v>
       </c>
     </row>
     <row r="22">
@@ -892,7 +892,7 @@
         <v>0.3819996983414162</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2866711306576855</v>
+        <v>0.2866711306576856</v>
       </c>
     </row>
     <row r="23">
@@ -906,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2184059974748207</v>
+        <v>0.2209941877295384</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1577426451675649</v>
+        <v>0.152447367843442</v>
       </c>
     </row>
     <row r="24">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4495627534667058</v>
+        <v>0.5262417988114119</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6053190066765933</v>
+        <v>0.5993652051718105</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4495865447147223</v>
+        <v>0.4383362243613103</v>
       </c>
     </row>
     <row r="25">
@@ -974,10 +974,10 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.5134273195176514</v>
+        <v>0.5258631407412722</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2203502457723476</v>
+        <v>0.2235071967940681</v>
       </c>
     </row>
     <row r="28">
@@ -992,13 +992,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.1280014271240324</v>
+        <v>0.1280014271240325</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.5148654427542919</v>
+        <v>0.514865442754292</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.3046049829183108</v>
+        <v>0.3046049829183109</v>
       </c>
     </row>
     <row r="29">
@@ -1009,13 +1009,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.06895801508824635</v>
+        <v>0.06923515605625745</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4111081371078712</v>
+        <v>0.3962269262512342</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2310568457617186</v>
+        <v>0.2293884464550214</v>
       </c>
     </row>
     <row r="30">
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2240352116699997</v>
+        <v>0.2294678950273249</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6466812733474495</v>
+        <v>0.6389752093070827</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4047251083641883</v>
+        <v>0.3878086550424156</v>
       </c>
     </row>
     <row r="31">
@@ -1179,10 +1179,10 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7">
@@ -1194,10 +1194,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>2992</v>
+        <v>2524</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3519</v>
+        <v>3821</v>
       </c>
     </row>
     <row r="8">
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1790</v>
+        <v>1773</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2690</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="11">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7105</v>
+        <v>7263</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5888</v>
+        <v>5847</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11445</v>
+        <v>11856</v>
       </c>
     </row>
     <row r="12">
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2422</v>
+        <v>2338</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2783</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="15">
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3575</v>
+        <v>3811</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6337</v>
+        <v>6383</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9594</v>
+        <v>8984</v>
       </c>
     </row>
     <row r="16">
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5335</v>
+        <v>5383</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4909</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="19">
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4843</v>
+        <v>4756</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11000</v>
+        <v>10962</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16338</v>
+        <v>16331</v>
       </c>
     </row>
     <row r="20">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>2785</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="24">
@@ -1530,13 +1530,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1058</v>
+        <v>912</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1903</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="27">
@@ -1547,13 +1547,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3136</v>
+        <v>3407</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>3313</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>6299</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="28">
@@ -1605,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4363</v>
+        <v>4415</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4837</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="31">
@@ -1619,13 +1619,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4806</v>
+        <v>5626</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>12092</v>
+        <v>11973</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>13787</v>
+        <v>13442</v>
       </c>
     </row>
     <row r="32">
@@ -1690,10 +1690,10 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>2482</v>
+        <v>2542</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2970</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="36">
@@ -1742,13 +1742,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>4703</v>
+        <v>4722</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>23550</v>
+        <v>22698</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>28995</v>
+        <v>28785</v>
       </c>
     </row>
     <row r="39">
@@ -1759,13 +1759,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>15280</v>
+        <v>15650</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>37045</v>
+        <v>36604</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>50788</v>
+        <v>48665</v>
       </c>
     </row>
     <row r="40">
